--- a/cep.xlsx
+++ b/cep.xlsx
@@ -1,38 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luana\Documents\Python Projects\pycep-correios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C67DB4F-DF91-4637-8DC2-B8ACCEE5063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">cep </t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>42801-000</t>
+  </si>
+  <si>
+    <t>45.008-710</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b val="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,82 +87,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,91 +409,1555 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="9.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>cep</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>bairro</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>cidade</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>logradouro</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>35058140</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>36202394</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Santa Luzia</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Barbacena</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Rua Padre Antônio Maciel</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CEP encontrado</t>
-        </is>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>31230390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>32676378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>35022160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>30220022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>39750000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>38035060</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>30120020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>35181316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>32405324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>31070090</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>30512000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>32015190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>32040250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>30672630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>36204050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>36204276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>33934160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>30626483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>34580230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>33880130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>30240117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>36202458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>35162716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>34585180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>30668480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>35164056</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>32623298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>35500341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>35500061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32042050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33840385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>32605102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35030090</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>31872040</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>35057220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>36202517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>31320240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>36200344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>31995280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>33823540</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>35501204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>30411575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>30840490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>35500025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>35164308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>35030150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>32042130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>31975270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>32040460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>36208000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>35040090</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>33065244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>32432130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>36205664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>35500305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>33130180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>33200000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>31975130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>30720100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>30622080</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>30692190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>31748326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>30860240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>32370000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>30575180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>32235310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>35164183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>31010170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>34575070</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>36060662</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>30692525</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>32340010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>32670622</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>36201584</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>30692291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>33820560</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>35501315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>39237000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>36201540</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>30220060</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>32412297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>35164308</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>30666527</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>32042370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>30286060</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>35170065</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>35164352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>30690500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>32042140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>35010030</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>30626670</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>36202747</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>31210580</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>30270240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>31950430</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>32420170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>30644210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>31630560</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>32421225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>31170030</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>30550120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>33120170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>35054040</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>31775180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>31980210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45605220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>40718014</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45810000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>42820000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>40718014</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>44480000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45810000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45821108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>48280000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45993018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45200970</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45201027</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45836000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45065135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45604610</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45654460</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>40040340</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45200590</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45810000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45003360</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>41350000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45656584</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45630000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45829140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>41810640</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>44460000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45658732</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>42711460</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45200970</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45375000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>41342035</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>44065754</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>42850000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45820970</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45994369</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45601426</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45657050</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45820001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>44570470</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45658835</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>41345200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>42711550</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45993298</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45661244</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>41320135</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>41213700</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44550000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>42738770</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44571970</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45820085</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45066259</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44940000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>44340000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45000970</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45658630</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>41820340</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>41750166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>40720460</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>40286300</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>41310120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>40450260</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>42733560</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>42712750</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45980000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45400000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45607065</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45600505</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>41720040</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44056016</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45820970</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>41338050</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45200719</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45988588</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45200557</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45985630</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45104000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>41385110</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45028524</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45990289</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>40230044</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>40717010</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>40231250</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>44574899</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>41341010</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>42703970</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>44572065</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45690000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45651730</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44200000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45208365</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45657012</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45987476</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>40255375</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>40349640</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45608110</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45020300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45203190</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45208253</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>42803270</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45003400</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45065685</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45816000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>40715515</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>40436220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45989184</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>44574899</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45099899</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45650770</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>42808180</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>40470121</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45208263</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>45860000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>45745000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>45820970</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>45990494</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>44445124</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>45450000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>45656594</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>45203692</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45992054</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>45260000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45700000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45650480</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>45821034</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>41336190</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>44400000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>45605298</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>44550000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>45848000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>45836000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>45840000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>45810000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>41213250</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>44088612</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>40335600</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>41320157</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>29950000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>29230000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>29153080</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>29152816</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>29171201</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>29309262</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>29046045</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>29160750</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>29725000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>29302050</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>29101580</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>29709329</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>29312051</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>29168520</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>29170103</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>29706480</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>29300970</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>29142539</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>29149360</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>29309405</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>29152823</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>29936802</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>29701070</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>29314010</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>29163543</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>29560000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>29680000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>29903600</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>29450000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>29345000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>29171050</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>29703550</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>29032567</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>29016220</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>29199971</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>29135224</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>29137147</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>29121225</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>29330000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>29162016</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>29830000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>29167168</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>29313235</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>29126150</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>29830000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>29128498</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>29127064</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>29221600</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>29240000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>29315799</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>29709313</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>29177224</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>29122785</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>29360000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>29060740</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>29309070</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>29171074</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>29138294</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>29155761</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>